--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\2020\2020-04_EPS_Europe\30_Forschung_(intern)\InputData_EU28\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC738F8B-7D64-442A-988B-A85A7638C041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="11565"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
-  </si>
-  <si>
     <t>Electricity Source</t>
   </si>
   <si>
@@ -89,18 +95,6 @@
     <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
   </si>
   <si>
-    <t>model user.  The example we include uses only wind, solar, and geothermal.</t>
-  </si>
-  <si>
-    <t>Hydro is excluded because of limited potential for new large hydro and land use impacts.</t>
-  </si>
-  <si>
-    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
-  </si>
-  <si>
-    <t>local air quality impacts and land use challenges.</t>
-  </si>
-  <si>
     <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
   </si>
   <si>
@@ -117,12 +111,18 @@
   </si>
   <si>
     <t>Qualifies for RPS (Boolean)</t>
+  </si>
+  <si>
+    <t>An RPS defines the sources that qualify for RPS, leading to</t>
+  </si>
+  <si>
+    <t>model user.  The example we include uses wind, solar, hydro, biomass and geothermal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,8 +179,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -271,6 +271,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -306,6 +323,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,85 +515,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.59765625" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -569,154 +588,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -728,154 +747,154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekte\2020\2020-04_EPS_Europe\30_Forschung_(intern)\InputData_EU28\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC738F8B-7D64-442A-988B-A85A7638C041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -122,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,8 +178,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -196,7 +195,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -271,23 +270,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -323,23 +305,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,27 +480,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,40 +508,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -588,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -598,13 +563,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -620,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -628,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -636,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -644,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -652,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -660,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -668,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -676,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -684,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -692,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -700,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -709,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -717,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -725,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -733,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -747,23 +712,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -771,7 +736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -779,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -787,15 +752,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -803,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -811,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -819,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -827,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -835,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -843,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -851,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -859,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -868,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -876,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -884,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -892,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2947672-3578-4C1A-8AC5-8D5DA9E4608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="58575" yWindow="1995" windowWidth="27090" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -121,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,6 +276,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -305,6 +328,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,27 +520,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="84.59765625" customWidth="1"/>
+    <col min="2" max="2" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,40 +550,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -553,23 +595,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -577,7 +619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -585,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -593,15 +635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -609,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -617,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -625,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -633,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -641,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -649,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -657,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -665,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -674,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -682,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -690,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -698,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -712,23 +754,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,7 +778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -744,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -752,15 +794,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -768,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -776,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -784,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -792,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -800,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -808,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -816,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -824,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -833,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -841,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -849,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -857,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FA76E-5D3F-4E4D-BFB9-F8690B9ED18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,11 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
+  </si>
+  <si>
     <t>Electricity Source</t>
   </si>
   <si>
@@ -61,9 +69,6 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -94,6 +99,18 @@
     <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
   </si>
   <si>
+    <t>model user.  The example we include uses only wind, solar, and geothermal.</t>
+  </si>
+  <si>
+    <t>Hydro is excluded because of limited potential for new large hydro and land use impacts.</t>
+  </si>
+  <si>
+    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
+  </si>
+  <si>
+    <t>local air quality impacts and land use challenges.</t>
+  </si>
+  <si>
     <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
   </si>
   <si>
@@ -112,17 +129,38 @@
     <t>Qualifies for RPS (Boolean)</t>
   </si>
   <si>
-    <t>An RPS defines the sources that qualify for RPS, leading to</t>
-  </si>
-  <si>
-    <t>model user.  The example we include uses wind, solar, hydro, biomass and geothermal.</t>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +180,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +220,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -195,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,9 +282,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,70 +527,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.59765625" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -553,31 +615,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -585,23 +647,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -609,23 +671,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -633,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -641,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -649,15 +711,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -665,45 +727,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -712,31 +838,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -744,47 +870,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -792,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -800,23 +926,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -824,45 +950,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2947672-3578-4C1A-8AC5-8D5DA9E4608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FA76E-5D3F-4E4D-BFB9-F8690B9ED18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58575" yWindow="1995" windowWidth="27090" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,11 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
+  </si>
+  <si>
     <t>Electricity Source</t>
   </si>
   <si>
@@ -67,9 +69,6 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -100,6 +99,18 @@
     <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
   </si>
   <si>
+    <t>model user.  The example we include uses only wind, solar, and geothermal.</t>
+  </si>
+  <si>
+    <t>Hydro is excluded because of limited potential for new large hydro and land use impacts.</t>
+  </si>
+  <si>
+    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
+  </si>
+  <si>
+    <t>local air quality impacts and land use challenges.</t>
+  </si>
+  <si>
     <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
   </si>
   <si>
@@ -118,17 +129,38 @@
     <t>Qualifies for RPS (Boolean)</t>
   </si>
   <si>
-    <t>An RPS defines the sources that qualify for RPS, leading to</t>
-  </si>
-  <si>
-    <t>model user.  The example we include uses wind, solar, hydro, biomass and geothermal.</t>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +180,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,7 +220,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -201,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,9 +282,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,26 +317,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,26 +352,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,71 +528,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.6328125" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -599,27 +619,27 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -627,23 +647,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -651,23 +671,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -675,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -683,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -691,15 +711,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -707,45 +727,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -758,27 +842,27 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -786,47 +870,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -834,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -842,23 +926,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -866,45 +950,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FA76E-5D3F-4E4D-BFB9-F8690B9ED18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B458E499FDCCC977CF15BDA232EEEACC09E96843" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E02FFF-2466-4C02-8BB3-15200DBC8ADE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RQSD-BRQSD" sheetId="2" r:id="rId2"/>
     <sheet name="RQSD-RQSD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,23 +38,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+  <si>
+    <t>RQSD BAU RPS Qualifying Source Definitions</t>
+  </si>
+  <si>
+    <t>RQSD RPS Qualifying Source Definitions</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
+    <t>see notes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>An RPS defines the sources that qualify for RPS, leading to</t>
+  </si>
+  <si>
+    <t>differences between states.  Here, we use a "clean energy standard"</t>
+  </si>
+  <si>
+    <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
+  </si>
+  <si>
+    <t>The non-BAU version of this variable supports a boolean policy lever and is intended to be set by the</t>
+  </si>
+  <si>
+    <t>model user.  The example we include uses wind, solar, hydro, biomass and geothermal.</t>
+  </si>
+  <si>
+    <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
   </si>
   <si>
     <t>Electricity Source</t>
   </si>
   <si>
+    <t>Qualifies for RPS (Boolean)</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
     <t>nuclear</t>
   </si>
   <si>
     <t>hydro</t>
   </si>
   <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -69,54 +112,12 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>The non-BAU version of this variable supports a boolean policy lever and is intended to be set by the</t>
-  </si>
-  <si>
-    <t>RQSD BAU RPS Qualifying Source Definitions</t>
-  </si>
-  <si>
-    <t>RQSD RPS Qualifying Source Definitions</t>
-  </si>
-  <si>
     <t>lignite</t>
   </si>
   <si>
-    <t>hard coal</t>
-  </si>
-  <si>
-    <t>onshore wind</t>
-  </si>
-  <si>
     <t>offshore wind</t>
   </si>
   <si>
-    <t>differences between states.  Here, we use a "clean energy standard"</t>
-  </si>
-  <si>
-    <t>(counting everything except fossil fuels) as our definition for the BAU case.</t>
-  </si>
-  <si>
-    <t>model user.  The example we include uses only wind, solar, and geothermal.</t>
-  </si>
-  <si>
-    <t>Hydro is excluded because of limited potential for new large hydro and land use impacts.</t>
-  </si>
-  <si>
-    <t>Biomass is excluded because it is not truly carbon-neutral, and it has other issues, such as</t>
-  </si>
-  <si>
-    <t>local air quality impacts and land use challenges.</t>
-  </si>
-  <si>
-    <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
-  </si>
-  <si>
-    <t>see notes</t>
-  </si>
-  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -124,43 +125,13 @@
   </si>
   <si>
     <t>municipal solid waste</t>
-  </si>
-  <si>
-    <t>Qualifies for RPS (Boolean)</t>
-  </si>
-  <si>
-    <t>natural gas steam turbine</t>
-  </si>
-  <si>
-    <t>natural gas combined cycle</t>
-  </si>
-  <si>
-    <t>hard coal w CCS</t>
-  </si>
-  <si>
-    <t>natural gas combined cycle w CCS</t>
-  </si>
-  <si>
-    <t>biomass w CCS</t>
-  </si>
-  <si>
-    <t>lignite w CCS</t>
-  </si>
-  <si>
-    <t>small modular reactor</t>
-  </si>
-  <si>
-    <t>hydrogen combustion turbine</t>
-  </si>
-  <si>
-    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +151,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,20 +177,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,84 +489,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -619,140 +567,140 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -760,76 +708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -842,140 +726,140 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -983,79 +867,270 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17">
         <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02A1DE1B-E1F8-4FA8-B27D-0AC43D111686}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}"/>
 </file>
--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/elec/RQSD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B458E499FDCCC977CF15BDA232EEEACC09E96843" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E02FFF-2466-4C02-8BB3-15200DBC8ADE}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_B458E499FDCCC977CF15BDA232EEEACC09E96843" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191C3E45-771C-4693-B42F-FA6AC7466AAE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>RQSD BAU RPS Qualifying Source Definitions</t>
   </si>
@@ -82,9 +82,6 @@
     <t>hard coal</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -125,13 +122,40 @@
   </si>
   <si>
     <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +210,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,26 +515,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -518,40 +542,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -567,19 +591,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -587,7 +611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -595,125 +619,189 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B14">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -726,19 +814,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -746,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -754,125 +842,189 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B14">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -881,6 +1033,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -1103,34 +1275,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02A1DE1B-E1F8-4FA8-B27D-0AC43D111686}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02A1DE1B-E1F8-4FA8-B27D-0AC43D111686}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_EI+Agora/elec/RQSD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\European Union\Models\eps-eu\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_B458E499FDCCC977CF15BDA232EEEACC09E96843" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191C3E45-771C-4693-B42F-FA6AC7466AAE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CF25B7-E284-4258-B149-4726EAFBCA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="690" windowWidth="19160" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -519,22 +519,22 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.54296875" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,40 +542,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -593,17 +593,17 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -748,60 +748,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -820,13 +820,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -834,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1033,15 +1033,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -1050,6 +1041,15 @@
     <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1276,20 +1276,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\European Union\Models\eps-eu\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CF25B7-E284-4258-B149-4726EAFBCA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F51D8-275C-42BA-9958-39AE082172A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="690" windowWidth="19160" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30870" yWindow="4215" windowWidth="23340" windowHeight="12795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>RQSD BAU RPS Qualifying Source Definitions</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
-  </si>
-  <si>
-    <t>Electricity Source</t>
   </si>
   <si>
     <t>Qualifies for RPS (Boolean)</t>
@@ -519,22 +516,22 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,40 +539,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -591,216 +588,2420 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>22</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
       </c>
       <c r="B14">
         <f>B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:AE14" si="0">D2</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
       <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
         <v>0</v>
       </c>
     </row>
@@ -814,216 +3015,2420 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AE25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>22</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
       </c>
       <c r="B14">
         <f>B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" ref="C14:AE14" si="0">C2</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
         <v>1</v>
       </c>
     </row>
@@ -1033,26 +5438,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -1275,26 +5660,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02A1DE1B-E1F8-4FA8-B27D-0AC43D111686}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1311,4 +5697,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7FA76E-5D3F-4E4D-BFB9-F8690B9ED18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB7CAD8-F8F1-4C3C-99B7-2CAFF1F53D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Source:</t>
   </si>
   <si>
     <t>Each U.S. state that has an RPS defines the sources that qualify for that RPS, leading to</t>
-  </si>
-  <si>
-    <t>Electricity Source</t>
   </si>
   <si>
     <t>nuclear</t>
@@ -530,7 +527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -539,12 +538,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +559,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,42 +569,42 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -619,10 +618,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,204 +630,2408 @@
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2026</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2028</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2029</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2030</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2031</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2032</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2033</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2034</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2035</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2036</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2037</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2038</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2039</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2040</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2041</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2042</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2043</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>2044</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2045</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2046</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2047</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>2048</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2049</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <f>B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" ref="C14:AE14" si="0">C2</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
         <v>1</v>
       </c>
     </row>
@@ -842,10 +3045,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,204 +3057,2408 @@
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2026</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2027</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2028</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2029</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2030</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2031</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2032</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2033</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2034</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2035</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2036</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2037</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2038</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2039</v>
+      </c>
+      <c r="U1" s="3">
+        <v>2040</v>
+      </c>
+      <c r="V1" s="3">
+        <v>2041</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2042</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2043</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>2044</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2045</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2046</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2047</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>2048</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2049</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <f>B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" ref="C14:AE14" si="0">C2</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
         <v>1</v>
       </c>
     </row>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\European Union\Models\eps-eu\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CF25B7-E284-4258-B149-4726EAFBCA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E952B144-8A65-476A-9930-11E42E907A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="690" windowWidth="19160" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>RQSD BAU RPS Qualifying Source Definitions</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Nuclear is excluded because of the need to manage nuclear waste.</t>
-  </si>
-  <si>
-    <t>Electricity Source</t>
   </si>
   <si>
     <t>Qualifies for RPS (Boolean)</t>
@@ -519,22 +516,22 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,40 +539,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -591,216 +588,2420 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B25"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>22</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
       </c>
       <c r="B14">
         <f>B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>E2</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>F2</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>H2</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>J2</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>K2</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>L2</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>M2</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>N2</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>O2</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>Q2</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>R2</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>S2</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>T2</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>U2</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>V2</f>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f>W2</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>X2</f>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f>Y2</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f>Z2</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f>AA2</f>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f>AB2</f>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f>AC2</f>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f>AD2</f>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f>AE2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
       <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
         <v>0</v>
       </c>
     </row>
@@ -814,216 +3015,2420 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>22</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
       </c>
       <c r="B14">
         <f>B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>E2</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>F2</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>H2</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>J2</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>K2</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>L2</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>M2</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>N2</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>O2</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>Q2</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>R2</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>S2</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>T2</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>U2</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>V2</f>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f>W2</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>X2</f>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f>Y2</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f>Z2</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f>AA2</f>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f>AB2</f>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f>AC2</f>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f>AD2</f>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f>AE2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
         <v>1</v>
       </c>
     </row>
@@ -1033,6 +5438,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -1041,15 +5455,6 @@
     <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1276,20 +5681,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E952B144-8A65-476A-9930-11E42E907A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC3BFDD-959C-40E7-A657-7EA10D324621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31125" yWindow="5070" windowWidth="24960" windowHeight="11130" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1840,123 +1840,123 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <f>B2</f>
+        <f t="shared" ref="B14:AE14" si="0">B2</f>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>C2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>D2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>E2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>F2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>G2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>H2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>I2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>J2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>K2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>L2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>M2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>N2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>O2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>P2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>Q2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f>R2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>S2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>T2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>U2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>V2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f>W2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f>X2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f>Y2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f>Z2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f>AA2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f>AB2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f>AC2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f>AD2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f>AE2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3017,8 +3017,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3887,94 +3887,94 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
@@ -4267,123 +4267,123 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <f>B2</f>
+        <f t="shared" ref="B14:AE14" si="0">B2</f>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>C2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>D2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>E2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>F2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>G2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>H2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>I2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>J2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>K2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>L2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>M2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>N2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>O2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>P2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>Q2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f>R2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>S2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>T2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>U2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>V2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f>W2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f>X2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f>Y2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f>Z2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f>AA2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f>AB2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f>AC2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f>AD2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f>AE2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5247,94 +5247,94 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
@@ -5342,94 +5342,94 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5447,17 +5447,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -5680,6 +5669,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}">
   <ds:schemaRefs>
@@ -5689,17 +5689,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02A1DE1B-E1F8-4FA8-B27D-0AC43D111686}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5716,4 +5705,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
+++ b/InputData/elec/RQSD/RPS Qualifying Source Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\RQSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\elec\RQSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC3BFDD-959C-40E7-A657-7EA10D324621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4BCF98-7965-49D2-9363-A8F171087602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31125" yWindow="5070" windowWidth="24960" windowHeight="11130" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,94 +985,94 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
@@ -1840,123 +1840,93 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:AE14" si="0">B2</f>
         <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2535,94 +2505,94 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
@@ -2725,94 +2695,94 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
@@ -3017,7 +2987,7 @@
   </sheetPr>
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24:AE25"/>
     </sheetView>
   </sheetViews>
@@ -5438,12 +5408,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5670,20 +5642,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5708,12 +5681,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845C71C5-F42F-4A6D-B35D-EFC0EAA73A8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044390D6-2EC7-47F1-AF9A-70E8B29FA745}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>